--- a/scores.xlsx
+++ b/scores.xlsx
@@ -450,7 +450,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>636.3</v>
+        <v>650.5</v>
       </c>
     </row>
   </sheetData>

--- a/scores.xlsx
+++ b/scores.xlsx
@@ -450,7 +450,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>650.5</v>
+        <v>657.8</v>
       </c>
     </row>
   </sheetData>

--- a/scores.xlsx
+++ b/scores.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B3"/>
+  <dimension ref="A1:B4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -453,6 +453,16 @@
         <v>657.8</v>
       </c>
     </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>2026-02-09</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>824.1</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/scores.xlsx
+++ b/scores.xlsx
@@ -460,7 +460,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>824.1</v>
+        <v>861.8</v>
       </c>
     </row>
   </sheetData>

--- a/scores.xlsx
+++ b/scores.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B4"/>
+  <dimension ref="A1:B5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -463,6 +463,16 @@
         <v>861.8</v>
       </c>
     </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>2026-02-10</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>865</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/scores.xlsx
+++ b/scores.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B5"/>
+  <dimension ref="A1:B6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -473,6 +473,16 @@
         <v>865</v>
       </c>
     </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>2026-02-16</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>900.4</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/scores.xlsx
+++ b/scores.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B6"/>
+  <dimension ref="A1:B7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -483,6 +483,16 @@
         <v>900.4</v>
       </c>
     </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>2026-02-21</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>969.3</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/scores.xlsx
+++ b/scores.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B7"/>
+  <dimension ref="A1:B8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -493,6 +493,16 @@
         <v>969.3</v>
       </c>
     </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>2026-02-22</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>1032.9</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
